--- a/DataDrivenFramework/src/test/resources/excel/testdata.xlsx
+++ b/DataDrivenFramework/src/test/resources/excel/testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>firstname</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>def</t>
+  </si>
+  <si>
+    <t>alertText</t>
+  </si>
+  <si>
+    <t>Customer added successfully</t>
   </si>
 </sst>
 </file>
@@ -362,15 +368,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -380,8 +386,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -390,6 +399,9 @@
       </c>
       <c r="C2">
         <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/DataDrivenFramework/src/test/resources/excel/testdata.xlsx
+++ b/DataDrivenFramework/src/test/resources/excel/testdata.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="addCustomer" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="openAccount" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -370,11 +370,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -413,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>

--- a/DataDrivenFramework/src/test/resources/excel/testdata.xlsx
+++ b/DataDrivenFramework/src/test/resources/excel/testdata.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="addCustomer" sheetId="1" r:id="rId1"/>
-    <sheet name="openAccount" sheetId="2" r:id="rId2"/>
+    <sheet name="OpenAccountTest" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>firstname</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>Customer added successfully</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>Raju</t>
+  </si>
+  <si>
+    <t>Rupee</t>
   </si>
 </sst>
 </file>
@@ -414,12 +426,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/DataDrivenFramework/src/test/resources/excel/testdata.xlsx
+++ b/DataDrivenFramework/src/test/resources/excel/testdata.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="addCustomer" sheetId="1" r:id="rId1"/>
-    <sheet name="OpenAccountTest" sheetId="2" r:id="rId2"/>
+    <sheet name="openAccount" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>firstname</t>
   </si>
@@ -49,6 +49,30 @@
   </si>
   <si>
     <t>Rupee</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>Account created successfully</t>
+  </si>
+  <si>
+    <t>gfhe</t>
+  </si>
+  <si>
+    <t>fdsjg</t>
+  </si>
+  <si>
+    <t>flkenl</t>
+  </si>
+  <si>
+    <t>runmode</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -380,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -391,7 +415,7 @@
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,8 +428,11 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -417,6 +444,60 @@
       </c>
       <c r="D2" t="s">
         <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -426,32 +507,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.109375" customWidth="1"/>
     <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/DataDrivenFramework/src/test/resources/excel/testdata.xlsx
+++ b/DataDrivenFramework/src/test/resources/excel/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="addCustomer" sheetId="1" r:id="rId1"/>
@@ -16,16 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>postcode</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>abc</t>
   </si>
@@ -51,9 +42,6 @@
     <t>Rupee</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>Account created successfully</t>
   </si>
   <si>
@@ -66,13 +54,22 @@
     <t>flkenl</t>
   </si>
   <si>
-    <t>runmode</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>runMode</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>firstName</t>
   </si>
 </sst>
 </file>
@@ -406,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -417,87 +414,87 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -509,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -522,24 +519,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
